--- a/BaseLimpo/2018_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2018_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alim Vencidos            </t>
+          <t>Alim Vencidos</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animais                  </t>
+          <t>Animais</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -600,7 +600,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversos                 </t>
+          <t>Diversos</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Domiciliar               </t>
+          <t>Domiciliar</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -692,7 +692,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Apreendido       </t>
+          <t>Entulho Apreendido</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -738,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Manual           </t>
+          <t>Entulho Manual</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -784,7 +784,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Mecanizado       </t>
+          <t>Entulho Mecanizado</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -830,7 +830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esgoto                   </t>
+          <t>Esgoto</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -876,7 +876,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feira Livre              </t>
+          <t>Feira Livre</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -922,7 +922,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gg Saude                 </t>
+          <t>Gg Saude</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -968,7 +968,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pg Saude                 </t>
+          <t>Pg Saude</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1014,7 +1014,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poda                     </t>
+          <t>Poda</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1060,7 +1060,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito                  </t>
+          <t>Rejeito</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1106,7 +1106,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito-Cmt Cmj          </t>
+          <t>Rejeito-Cmt Cmj</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1152,7 +1152,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Boca De Lobo </t>
+          <t>Residuos De Boca De Lobo</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1198,7 +1198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Corregos     </t>
+          <t>Residuos De Corregos</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1244,7 +1244,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Ecoponto     </t>
+          <t>Residuos De Ecoponto</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1290,7 +1290,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Piscinao     </t>
+          <t>Residuos De Piscinao</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1336,7 +1336,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seletiva                 </t>
+          <t>Seletiva</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1382,7 +1382,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao                 </t>
+          <t>Varricao</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1428,7 +1428,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao Mecanizada      </t>
+          <t>Varricao Mecanizada</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1469,52 +1469,6 @@
       </c>
       <c r="N22" t="n">
         <v>447.59</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total Geral                    </t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>524597.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>486848.89</v>
-      </c>
-      <c r="D23" t="n">
-        <v>534651.55</v>
-      </c>
-      <c r="E23" t="n">
-        <v>500877.62</v>
-      </c>
-      <c r="F23" t="n">
-        <v>497681.95</v>
-      </c>
-      <c r="G23" t="n">
-        <v>486910.69</v>
-      </c>
-      <c r="H23" t="n">
-        <v>495068.21</v>
-      </c>
-      <c r="I23" t="n">
-        <v>511932.41</v>
-      </c>
-      <c r="J23" t="n">
-        <v>481426.59</v>
-      </c>
-      <c r="K23" t="n">
-        <v>531602.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>501657.64</v>
-      </c>
-      <c r="M23" t="n">
-        <v>529217.84</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6082472.989999999</v>
       </c>
     </row>
   </sheetData>
